--- a/assets/data/ExcelToJson.resources.xlsx
+++ b/assets/data/ExcelToJson.resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="675" yWindow="540" windowWidth="26340" windowHeight="14340"/>
+    <workbookView xWindow="675" yWindow="540" windowWidth="26340" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
@@ -1916,11 +1916,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2237,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2252,7 @@
     <col min="11" max="11" width="44.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" customWidth="1"/>
     <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2345,7 +2346,7 @@
       <c r="N2" t="b">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>44504</v>
       </c>
     </row>
@@ -2392,7 +2393,7 @@
       <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>44400</v>
       </c>
     </row>
@@ -2439,7 +2440,7 @@
       <c r="N4" t="b">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>44453</v>
       </c>
     </row>
@@ -2486,7 +2487,7 @@
       <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>44445</v>
       </c>
     </row>
@@ -2533,7 +2534,7 @@
       <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>44325</v>
       </c>
     </row>
@@ -2580,7 +2581,7 @@
       <c r="N7" t="b">
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>44368</v>
       </c>
     </row>
@@ -2627,7 +2628,7 @@
       <c r="N8" t="b">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>44508</v>
       </c>
     </row>
@@ -2674,7 +2675,7 @@
       <c r="N9" t="b">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -2721,7 +2722,7 @@
       <c r="N10" t="b">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>44452</v>
       </c>
     </row>
@@ -2768,7 +2769,7 @@
       <c r="N11" t="b">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>44328</v>
       </c>
     </row>
@@ -2815,7 +2816,7 @@
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -2862,7 +2863,7 @@
       <c r="N13" t="b">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>44405</v>
       </c>
     </row>
@@ -2909,7 +2910,7 @@
       <c r="N14" t="b">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>44435</v>
       </c>
     </row>
@@ -2956,7 +2957,7 @@
       <c r="N15" t="b">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3003,7 +3004,7 @@
       <c r="N16" t="b">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>44431</v>
       </c>
     </row>
@@ -3050,7 +3051,7 @@
       <c r="N17" t="b">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3097,7 +3098,7 @@
       <c r="N18" t="b">
         <v>1</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>44356</v>
       </c>
     </row>
@@ -3144,7 +3145,7 @@
       <c r="N19" t="b">
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>44421</v>
       </c>
     </row>
@@ -3191,7 +3192,7 @@
       <c r="N20" t="b">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>44396</v>
       </c>
     </row>
@@ -3238,7 +3239,7 @@
       <c r="N21" t="b">
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3285,7 +3286,7 @@
       <c r="N22" t="b">
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3332,7 +3333,7 @@
       <c r="N23" t="b">
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3379,7 +3380,7 @@
       <c r="N24" t="b">
         <v>1</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <v>44502</v>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       <c r="N25" t="b">
         <v>1</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3473,7 +3474,7 @@
       <c r="N26" t="b">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="2">
         <v>44502</v>
       </c>
     </row>
@@ -3520,7 +3521,7 @@
       <c r="N27" t="b">
         <v>1</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3567,7 +3568,7 @@
       <c r="N28" t="b">
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="2">
         <v>44359</v>
       </c>
     </row>
@@ -3614,7 +3615,7 @@
       <c r="N29" t="b">
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3661,7 +3662,7 @@
       <c r="N30" t="b">
         <v>1</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3708,7 +3709,7 @@
       <c r="N31" t="b">
         <v>1</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3755,7 +3756,7 @@
       <c r="N32" t="b">
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="2">
         <v>44378</v>
       </c>
     </row>
@@ -3802,7 +3803,7 @@
       <c r="N33" t="b">
         <v>1</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -3849,7 +3850,7 @@
       <c r="N34" t="b">
         <v>1</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="2">
         <v>44392</v>
       </c>
     </row>
@@ -3893,7 +3894,7 @@
       <c r="N35" t="b">
         <v>1</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -3940,7 +3941,7 @@
       <c r="N36" t="b">
         <v>1</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -3987,7 +3988,7 @@
       <c r="N37" t="b">
         <v>1</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -4034,7 +4035,7 @@
       <c r="N38" t="b">
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="2">
         <v>44348</v>
       </c>
     </row>
@@ -4081,7 +4082,7 @@
       <c r="N39" t="b">
         <v>1</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="2">
         <v>44448</v>
       </c>
     </row>
@@ -4125,7 +4126,7 @@
       <c r="N40" t="b">
         <v>1</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -4172,7 +4173,7 @@
       <c r="N41" t="b">
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <v>44452</v>
       </c>
     </row>
@@ -4219,7 +4220,7 @@
       <c r="N42" t="b">
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="2">
         <v>44487</v>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       <c r="N43" t="b">
         <v>1</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -4313,7 +4314,7 @@
       <c r="N44" t="b">
         <v>1</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <v>44382</v>
       </c>
     </row>
@@ -4360,7 +4361,7 @@
       <c r="N45" t="b">
         <v>1</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -4407,7 +4408,7 @@
       <c r="N46" t="b">
         <v>1</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="2">
         <v>44368</v>
       </c>
     </row>
@@ -4454,7 +4455,7 @@
       <c r="N47" t="b">
         <v>1</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -4498,7 +4499,7 @@
       <c r="N48" t="b">
         <v>1</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="2">
         <v>44487</v>
       </c>
     </row>
@@ -4545,7 +4546,7 @@
       <c r="N49" t="b">
         <v>1</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -4592,7 +4593,7 @@
       <c r="N50" t="b">
         <v>1</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="2">
         <v>44436</v>
       </c>
     </row>
@@ -4639,7 +4640,7 @@
       <c r="N51" t="b">
         <v>1</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       <c r="N52" t="b">
         <v>1</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -4733,7 +4734,7 @@
       <c r="N53" t="b">
         <v>1</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="2">
         <v>44467</v>
       </c>
     </row>
@@ -4777,7 +4778,7 @@
       <c r="N54" t="b">
         <v>1</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -4824,7 +4825,7 @@
       <c r="N55" t="b">
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="2">
         <v>44441</v>
       </c>
     </row>
@@ -4871,7 +4872,7 @@
       <c r="N56" t="b">
         <v>1</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="2">
         <v>44356</v>
       </c>
     </row>
@@ -4918,7 +4919,7 @@
       <c r="N57" t="b">
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="2">
         <v>44377</v>
       </c>
     </row>
@@ -4965,7 +4966,7 @@
       <c r="N58" t="b">
         <v>1</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="2">
         <v>44442</v>
       </c>
     </row>
@@ -5009,7 +5010,7 @@
       <c r="N59" t="b">
         <v>1</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="2">
         <v>44359</v>
       </c>
     </row>
@@ -5056,7 +5057,7 @@
       <c r="N60" t="b">
         <v>1</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="2">
         <v>44248</v>
       </c>
     </row>
@@ -5103,7 +5104,7 @@
       <c r="N61" t="b">
         <v>1</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -5150,7 +5151,7 @@
       <c r="N62" t="b">
         <v>1</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -5197,7 +5198,7 @@
       <c r="N63" t="b">
         <v>1</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -5244,7 +5245,7 @@
       <c r="N64" t="b">
         <v>1</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="2">
         <v>44452</v>
       </c>
     </row>
@@ -5291,7 +5292,7 @@
       <c r="N65" t="b">
         <v>1</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -5338,7 +5339,7 @@
       <c r="N66" t="b">
         <v>1</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="2">
         <v>44487</v>
       </c>
     </row>
@@ -5385,7 +5386,7 @@
       <c r="N67" t="b">
         <v>1</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -5432,7 +5433,7 @@
       <c r="N68" t="b">
         <v>1</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -5479,7 +5480,7 @@
       <c r="N69" t="b">
         <v>1</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       <c r="N70" t="b">
         <v>1</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="2">
         <v>44362</v>
       </c>
     </row>
@@ -5573,7 +5574,7 @@
       <c r="N71" t="b">
         <v>1</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="2">
         <v>44337</v>
       </c>
     </row>
@@ -5620,7 +5621,7 @@
       <c r="N72" t="b">
         <v>1</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="2">
         <v>44384</v>
       </c>
     </row>
@@ -5667,7 +5668,7 @@
       <c r="N73" t="b">
         <v>1</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="2">
         <v>44361</v>
       </c>
     </row>
@@ -5714,7 +5715,7 @@
       <c r="N74" t="b">
         <v>1</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="2">
         <v>44359</v>
       </c>
     </row>
@@ -5761,7 +5762,7 @@
       <c r="N75" t="b">
         <v>1</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -5808,7 +5809,7 @@
       <c r="N76" t="b">
         <v>1</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="2">
         <v>44431</v>
       </c>
     </row>
@@ -5855,7 +5856,7 @@
       <c r="N77" t="b">
         <v>1</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -5902,7 +5903,7 @@
       <c r="N78" t="b">
         <v>1</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="2">
         <v>44386</v>
       </c>
     </row>
@@ -5949,7 +5950,7 @@
       <c r="N79" t="b">
         <v>1</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="2">
         <v>44452</v>
       </c>
     </row>
@@ -5996,7 +5997,7 @@
       <c r="N80" t="b">
         <v>1</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="2">
         <v>44368</v>
       </c>
     </row>
@@ -6043,7 +6044,7 @@
       <c r="N81" t="b">
         <v>1</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="2">
         <v>44317</v>
       </c>
     </row>
@@ -6090,7 +6091,7 @@
       <c r="N82" t="b">
         <v>1</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="2">
         <v>44412</v>
       </c>
     </row>
@@ -6137,7 +6138,7 @@
       <c r="N83" t="b">
         <v>1</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="2">
         <v>44376</v>
       </c>
     </row>
@@ -6184,7 +6185,7 @@
       <c r="N84" t="b">
         <v>1</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -6231,7 +6232,7 @@
       <c r="N85" t="b">
         <v>1</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -6278,7 +6279,7 @@
       <c r="N86" t="b">
         <v>1</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="2">
         <v>44348</v>
       </c>
     </row>
@@ -6322,7 +6323,7 @@
       <c r="N87" t="b">
         <v>1</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -6369,7 +6370,7 @@
       <c r="N88" t="b">
         <v>1</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="2">
         <v>44383</v>
       </c>
     </row>
@@ -6416,7 +6417,7 @@
       <c r="N89" t="b">
         <v>1</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="2">
         <v>44460</v>
       </c>
     </row>
@@ -6460,7 +6461,7 @@
       <c r="N90" t="b">
         <v>1</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="2">
         <v>44386</v>
       </c>
     </row>
@@ -6507,7 +6508,7 @@
       <c r="N91" t="b">
         <v>1</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="2">
         <v>44445</v>
       </c>
     </row>
@@ -6554,7 +6555,7 @@
       <c r="N92" t="b">
         <v>1</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="2">
         <v>44432</v>
       </c>
     </row>
@@ -6601,7 +6602,7 @@
       <c r="N93" t="b">
         <v>1</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -6648,7 +6649,7 @@
       <c r="N94" t="b">
         <v>1</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -6695,7 +6696,7 @@
       <c r="N95" t="b">
         <v>1</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="2">
         <v>44428</v>
       </c>
     </row>
@@ -6739,7 +6740,7 @@
       <c r="N96" t="b">
         <v>1</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       <c r="N97" t="b">
         <v>1</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="2">
         <v>44466</v>
       </c>
     </row>
@@ -6833,7 +6834,7 @@
       <c r="N98" t="b">
         <v>1</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -6880,7 +6881,7 @@
       <c r="N99" t="b">
         <v>1</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="2">
         <v>44459</v>
       </c>
     </row>
@@ -6927,7 +6928,7 @@
       <c r="N100" t="b">
         <v>1</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -6974,7 +6975,7 @@
       <c r="N101" t="b">
         <v>1</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="2">
         <v>44361</v>
       </c>
     </row>
@@ -7021,7 +7022,7 @@
       <c r="N102" t="b">
         <v>1</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="2">
         <v>44377</v>
       </c>
     </row>
@@ -7065,7 +7066,7 @@
       <c r="N103" t="b">
         <v>1</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="2">
         <v>44470</v>
       </c>
     </row>
@@ -7112,7 +7113,7 @@
       <c r="N104" t="b">
         <v>1</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="2">
         <v>44331</v>
       </c>
     </row>
@@ -7159,7 +7160,7 @@
       <c r="N105" t="b">
         <v>1</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="2">
         <v>44439</v>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       <c r="N106" t="b">
         <v>1</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -7253,7 +7254,7 @@
       <c r="N107" t="b">
         <v>1</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="2">
         <v>44392</v>
       </c>
     </row>
@@ -7300,7 +7301,7 @@
       <c r="N108" t="b">
         <v>1</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="2">
         <v>44447</v>
       </c>
     </row>
@@ -7347,7 +7348,7 @@
       <c r="N109" t="b">
         <v>1</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -7394,7 +7395,7 @@
       <c r="N110" t="b">
         <v>1</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -7441,7 +7442,7 @@
       <c r="N111" t="b">
         <v>1</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -7488,7 +7489,7 @@
       <c r="N112" t="b">
         <v>1</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -7535,7 +7536,7 @@
       <c r="N113" t="b">
         <v>1</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -7582,7 +7583,7 @@
       <c r="N114" t="b">
         <v>1</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="2">
         <v>44495</v>
       </c>
     </row>
@@ -7629,7 +7630,7 @@
       <c r="N115" t="b">
         <v>1</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="2">
         <v>44361</v>
       </c>
     </row>
@@ -7676,7 +7677,7 @@
       <c r="N116" t="b">
         <v>1</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="2">
         <v>44375</v>
       </c>
     </row>
@@ -7723,7 +7724,7 @@
       <c r="N117" t="b">
         <v>1</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="2">
         <v>44408</v>
       </c>
     </row>
@@ -7770,7 +7771,7 @@
       <c r="N118" t="b">
         <v>1</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -7817,7 +7818,7 @@
       <c r="N119" t="b">
         <v>1</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="2">
         <v>44481</v>
       </c>
     </row>
@@ -7864,7 +7865,7 @@
       <c r="N120" t="b">
         <v>1</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="2">
         <v>44487</v>
       </c>
     </row>
@@ -7911,7 +7912,7 @@
       <c r="N121" t="b">
         <v>1</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="2">
         <v>44447</v>
       </c>
     </row>
@@ -7958,7 +7959,7 @@
       <c r="N122" t="b">
         <v>1</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -8005,7 +8006,7 @@
       <c r="N123" t="b">
         <v>1</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -8052,7 +8053,7 @@
       <c r="N124" t="b">
         <v>1</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -8099,7 +8100,7 @@
       <c r="N125" t="b">
         <v>1</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -8146,7 +8147,7 @@
       <c r="N126" t="b">
         <v>1</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -8193,7 +8194,7 @@
       <c r="N127" t="b">
         <v>1</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="2">
         <v>44365</v>
       </c>
     </row>
@@ -8240,7 +8241,7 @@
       <c r="N128" t="b">
         <v>1</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="2">
         <v>44475</v>
       </c>
     </row>
@@ -8287,7 +8288,7 @@
       <c r="N129" t="b">
         <v>1</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="2">
         <v>44410</v>
       </c>
     </row>
@@ -8334,7 +8335,7 @@
       <c r="N130" t="b">
         <v>1</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="2">
         <v>44494</v>
       </c>
     </row>
@@ -8378,7 +8379,7 @@
       <c r="N131" t="b">
         <v>1</v>
       </c>
-      <c r="O131">
+      <c r="O131" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -8425,7 +8426,7 @@
       <c r="N132" t="b">
         <v>1</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="2">
         <v>44475</v>
       </c>
     </row>
@@ -8472,7 +8473,7 @@
       <c r="N133" t="b">
         <v>1</v>
       </c>
-      <c r="O133">
+      <c r="O133" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -8519,7 +8520,7 @@
       <c r="N134" t="b">
         <v>1</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="2">
         <v>44375</v>
       </c>
     </row>
@@ -8566,7 +8567,7 @@
       <c r="N135" t="b">
         <v>1</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="2">
         <v>44434</v>
       </c>
     </row>
@@ -8613,7 +8614,7 @@
       <c r="N136" t="b">
         <v>1</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="2">
         <v>44357</v>
       </c>
     </row>
@@ -8660,7 +8661,7 @@
       <c r="N137" t="b">
         <v>1</v>
       </c>
-      <c r="O137">
+      <c r="O137" s="2">
         <v>44376</v>
       </c>
     </row>
@@ -8707,7 +8708,7 @@
       <c r="N138" t="b">
         <v>1</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="2">
         <v>44390</v>
       </c>
     </row>
@@ -8754,7 +8755,7 @@
       <c r="N139" t="b">
         <v>1</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -8801,7 +8802,7 @@
       <c r="N140" t="b">
         <v>1</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="2">
         <v>44410</v>
       </c>
     </row>
@@ -8848,7 +8849,7 @@
       <c r="N141" t="b">
         <v>1</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -8895,7 +8896,7 @@
       <c r="N142" t="b">
         <v>1</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="2">
         <v>44355</v>
       </c>
     </row>
@@ -8942,7 +8943,7 @@
       <c r="N143" t="b">
         <v>1</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -8989,7 +8990,7 @@
       <c r="N144" t="b">
         <v>1</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="2">
         <v>44442</v>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       <c r="N145" t="b">
         <v>1</v>
       </c>
-      <c r="O145">
+      <c r="O145" s="2">
         <v>44412</v>
       </c>
     </row>
@@ -9083,7 +9084,7 @@
       <c r="N146" t="b">
         <v>1</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="2">
         <v>44376</v>
       </c>
     </row>
@@ -9130,7 +9131,7 @@
       <c r="N147" t="b">
         <v>1</v>
       </c>
-      <c r="O147">
+      <c r="O147" s="2">
         <v>44447</v>
       </c>
     </row>
@@ -9177,7 +9178,7 @@
       <c r="N148" t="b">
         <v>1</v>
       </c>
-      <c r="O148">
+      <c r="O148" s="2">
         <v>44445</v>
       </c>
     </row>
@@ -9224,7 +9225,7 @@
       <c r="N149" t="b">
         <v>1</v>
       </c>
-      <c r="O149">
+      <c r="O149" s="2">
         <v>44384</v>
       </c>
     </row>
@@ -9271,7 +9272,7 @@
       <c r="N150" t="b">
         <v>1</v>
       </c>
-      <c r="O150">
+      <c r="O150" s="2">
         <v>44356</v>
       </c>
     </row>
@@ -9318,7 +9319,7 @@
       <c r="N151" t="b">
         <v>1</v>
       </c>
-      <c r="O151">
+      <c r="O151" s="2">
         <v>44466</v>
       </c>
     </row>
@@ -9365,7 +9366,7 @@
       <c r="N152" t="b">
         <v>1</v>
       </c>
-      <c r="O152">
+      <c r="O152" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -9412,7 +9413,7 @@
       <c r="N153" t="b">
         <v>1</v>
       </c>
-      <c r="O153">
+      <c r="O153" s="2">
         <v>44392</v>
       </c>
     </row>
@@ -9459,7 +9460,7 @@
       <c r="N154" t="b">
         <v>1</v>
       </c>
-      <c r="O154">
+      <c r="O154" s="2">
         <v>44487</v>
       </c>
     </row>
@@ -9506,7 +9507,7 @@
       <c r="N155" t="b">
         <v>1</v>
       </c>
-      <c r="O155">
+      <c r="O155" s="2">
         <v>44362</v>
       </c>
     </row>
@@ -9553,7 +9554,7 @@
       <c r="N156" t="b">
         <v>1</v>
       </c>
-      <c r="O156">
+      <c r="O156" s="2">
         <v>44377</v>
       </c>
     </row>
@@ -9600,7 +9601,7 @@
       <c r="N157" t="b">
         <v>1</v>
       </c>
-      <c r="O157">
+      <c r="O157" s="2">
         <v>44509</v>
       </c>
     </row>
@@ -9647,7 +9648,7 @@
       <c r="N158" t="b">
         <v>1</v>
       </c>
-      <c r="O158">
+      <c r="O158" s="2">
         <v>44473</v>
       </c>
     </row>
@@ -9694,7 +9695,7 @@
       <c r="N159" t="b">
         <v>1</v>
       </c>
-      <c r="O159">
+      <c r="O159" s="2">
         <v>44432</v>
       </c>
     </row>
@@ -9741,7 +9742,7 @@
       <c r="N160" t="b">
         <v>1</v>
       </c>
-      <c r="O160">
+      <c r="O160" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -9788,7 +9789,7 @@
       <c r="N161" t="b">
         <v>1</v>
       </c>
-      <c r="O161">
+      <c r="O161" s="2">
         <v>44383</v>
       </c>
     </row>
@@ -9835,7 +9836,7 @@
       <c r="N162" t="b">
         <v>1</v>
       </c>
-      <c r="O162">
+      <c r="O162" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -9882,7 +9883,7 @@
       <c r="N163" t="b">
         <v>1</v>
       </c>
-      <c r="O163">
+      <c r="O163" s="2">
         <v>44419</v>
       </c>
     </row>
@@ -9929,7 +9930,7 @@
       <c r="N164" t="b">
         <v>1</v>
       </c>
-      <c r="O164">
+      <c r="O164" s="2">
         <v>44334</v>
       </c>
     </row>
@@ -9976,7 +9977,7 @@
       <c r="N165" t="b">
         <v>1</v>
       </c>
-      <c r="O165">
+      <c r="O165" s="2">
         <v>44432</v>
       </c>
     </row>
@@ -10023,7 +10024,7 @@
       <c r="N166" t="b">
         <v>1</v>
       </c>
-      <c r="O166">
+      <c r="O166" s="2">
         <v>44487</v>
       </c>
     </row>
@@ -10070,7 +10071,7 @@
       <c r="N167" t="b">
         <v>1</v>
       </c>
-      <c r="O167">
+      <c r="O167" s="2">
         <v>44368</v>
       </c>
     </row>
@@ -10117,7 +10118,7 @@
       <c r="N168" t="b">
         <v>1</v>
       </c>
-      <c r="O168">
+      <c r="O168" s="2">
         <v>44422</v>
       </c>
     </row>
@@ -10164,7 +10165,7 @@
       <c r="N169" t="b">
         <v>1</v>
       </c>
-      <c r="O169">
+      <c r="O169" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -10208,7 +10209,7 @@
       <c r="N170" t="b">
         <v>1</v>
       </c>
-      <c r="O170">
+      <c r="O170" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -10252,7 +10253,7 @@
       <c r="N171" t="b">
         <v>1</v>
       </c>
-      <c r="O171">
+      <c r="O171" s="2">
         <v>44454</v>
       </c>
     </row>
@@ -10299,7 +10300,7 @@
       <c r="N172" t="b">
         <v>1</v>
       </c>
-      <c r="O172">
+      <c r="O172" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -10346,7 +10347,7 @@
       <c r="N173" t="b">
         <v>1</v>
       </c>
-      <c r="O173">
+      <c r="O173" s="2">
         <v>44482</v>
       </c>
     </row>
@@ -10393,7 +10394,7 @@
       <c r="N174" t="b">
         <v>1</v>
       </c>
-      <c r="O174">
+      <c r="O174" s="2">
         <v>44473</v>
       </c>
     </row>
@@ -10440,7 +10441,7 @@
       <c r="N175" t="b">
         <v>1</v>
       </c>
-      <c r="O175">
+      <c r="O175" s="2">
         <v>44314</v>
       </c>
     </row>
@@ -10487,7 +10488,7 @@
       <c r="N176" t="b">
         <v>1</v>
       </c>
-      <c r="O176">
+      <c r="O176" s="2">
         <v>44470</v>
       </c>
     </row>
@@ -10534,7 +10535,7 @@
       <c r="N177" t="b">
         <v>1</v>
       </c>
-      <c r="O177">
+      <c r="O177" s="2">
         <v>44417</v>
       </c>
     </row>
@@ -10581,7 +10582,7 @@
       <c r="N178" t="b">
         <v>1</v>
       </c>
-      <c r="O178">
+      <c r="O178" s="2">
         <v>44408</v>
       </c>
     </row>
@@ -10628,7 +10629,7 @@
       <c r="N179" t="b">
         <v>1</v>
       </c>
-      <c r="O179">
+      <c r="O179" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -10672,7 +10673,7 @@
       <c r="N180" t="b">
         <v>1</v>
       </c>
-      <c r="O180">
+      <c r="O180" s="2">
         <v>44445</v>
       </c>
     </row>
@@ -10719,7 +10720,7 @@
       <c r="N181" t="b">
         <v>1</v>
       </c>
-      <c r="O181">
+      <c r="O181" s="2">
         <v>44403</v>
       </c>
     </row>
@@ -10766,7 +10767,7 @@
       <c r="N182" t="b">
         <v>1</v>
       </c>
-      <c r="O182">
+      <c r="O182" s="2">
         <v>44501</v>
       </c>
     </row>
@@ -10813,7 +10814,7 @@
       <c r="N183" t="b">
         <v>1</v>
       </c>
-      <c r="O183">
+      <c r="O183" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -10860,7 +10861,7 @@
       <c r="N184" t="b">
         <v>1</v>
       </c>
-      <c r="O184">
+      <c r="O184" s="2">
         <v>44473</v>
       </c>
     </row>
@@ -10907,7 +10908,7 @@
       <c r="N185" t="b">
         <v>1</v>
       </c>
-      <c r="O185">
+      <c r="O185" s="2">
         <v>44505</v>
       </c>
     </row>
@@ -10954,7 +10955,7 @@
       <c r="N186" t="b">
         <v>1</v>
       </c>
-      <c r="O186">
+      <c r="O186" s="2">
         <v>44487</v>
       </c>
     </row>
@@ -11001,7 +11002,7 @@
       <c r="N187" t="b">
         <v>1</v>
       </c>
-      <c r="O187">
+      <c r="O187" s="2">
         <v>44387</v>
       </c>
     </row>
@@ -11048,7 +11049,7 @@
       <c r="N188" t="b">
         <v>1</v>
       </c>
-      <c r="O188">
+      <c r="O188" s="2">
         <v>44379</v>
       </c>
     </row>
@@ -11095,7 +11096,7 @@
       <c r="N189" t="b">
         <v>1</v>
       </c>
-      <c r="O189">
+      <c r="O189" s="2">
         <v>44418</v>
       </c>
     </row>
@@ -11142,7 +11143,7 @@
       <c r="N190" t="b">
         <v>1</v>
       </c>
-      <c r="O190">
+      <c r="O190" s="2">
         <v>44438</v>
       </c>
     </row>
@@ -11189,7 +11190,7 @@
       <c r="N191" t="b">
         <v>1</v>
       </c>
-      <c r="O191">
+      <c r="O191" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -11236,7 +11237,7 @@
       <c r="N192" t="b">
         <v>1</v>
       </c>
-      <c r="O192">
+      <c r="O192" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -11280,7 +11281,7 @@
       <c r="N193" t="b">
         <v>1</v>
       </c>
-      <c r="O193">
+      <c r="O193" s="2">
         <v>44358</v>
       </c>
     </row>
@@ -11327,7 +11328,7 @@
       <c r="N194" t="b">
         <v>1</v>
       </c>
-      <c r="O194">
+      <c r="O194" s="2">
         <v>44472</v>
       </c>
     </row>
@@ -11374,7 +11375,7 @@
       <c r="N195" t="b">
         <v>1</v>
       </c>
-      <c r="O195">
+      <c r="O195" s="2">
         <v>44389</v>
       </c>
     </row>
@@ -11421,7 +11422,7 @@
       <c r="N196" t="b">
         <v>1</v>
       </c>
-      <c r="O196">
+      <c r="O196" s="2">
         <v>44482</v>
       </c>
     </row>
@@ -11468,7 +11469,7 @@
       <c r="N197" t="b">
         <v>1</v>
       </c>
-      <c r="O197">
+      <c r="O197" s="2">
         <v>44397</v>
       </c>
     </row>
@@ -11515,7 +11516,7 @@
       <c r="N198" t="b">
         <v>1</v>
       </c>
-      <c r="O198">
+      <c r="O198" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -11562,7 +11563,7 @@
       <c r="N199" t="b">
         <v>1</v>
       </c>
-      <c r="O199">
+      <c r="O199" s="2">
         <v>44508</v>
       </c>
     </row>
@@ -11609,7 +11610,7 @@
       <c r="N200" t="b">
         <v>1</v>
       </c>
-      <c r="O200">
+      <c r="O200" s="2">
         <v>44402</v>
       </c>
     </row>
@@ -11656,7 +11657,7 @@
       <c r="N201" t="b">
         <v>1</v>
       </c>
-      <c r="O201">
+      <c r="O201" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -11703,7 +11704,7 @@
       <c r="N202" t="b">
         <v>1</v>
       </c>
-      <c r="O202">
+      <c r="O202" s="2">
         <v>44481</v>
       </c>
     </row>
@@ -11750,7 +11751,7 @@
       <c r="N203" t="b">
         <v>1</v>
       </c>
-      <c r="O203">
+      <c r="O203" s="2">
         <v>44501</v>
       </c>
     </row>
@@ -11797,7 +11798,7 @@
       <c r="N204" t="b">
         <v>1</v>
       </c>
-      <c r="O204">
+      <c r="O204" s="2">
         <v>44445</v>
       </c>
     </row>
@@ -11844,7 +11845,7 @@
       <c r="N205" t="b">
         <v>1</v>
       </c>
-      <c r="O205">
+      <c r="O205" s="2">
         <v>44389</v>
       </c>
     </row>
